--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Hbegf-Cd82.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Hbegf-Cd82.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.379281</v>
+        <v>8.082188</v>
       </c>
       <c r="H2">
-        <v>22.137843</v>
+        <v>24.246564</v>
       </c>
       <c r="I2">
-        <v>0.2744121884499961</v>
+        <v>0.2755301789948819</v>
       </c>
       <c r="J2">
-        <v>0.2744121884499961</v>
+        <v>0.2755301789948819</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.795622</v>
+        <v>3.932154333333333</v>
       </c>
       <c r="N2">
-        <v>68.386866</v>
+        <v>11.796463</v>
       </c>
       <c r="O2">
-        <v>0.2266510574407626</v>
+        <v>0.04140655843753142</v>
       </c>
       <c r="P2">
-        <v>0.2266510574407626</v>
+        <v>0.04140655843753142</v>
       </c>
       <c r="Q2">
-        <v>168.215300307782</v>
+        <v>31.78041056701467</v>
       </c>
       <c r="R2">
-        <v>1513.937702770038</v>
+        <v>286.023695103132</v>
       </c>
       <c r="S2">
-        <v>0.06219581268682544</v>
+        <v>0.01140875645785507</v>
       </c>
       <c r="T2">
-        <v>0.06219581268682545</v>
+        <v>0.01140875645785507</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.379281</v>
+        <v>8.082188</v>
       </c>
       <c r="H3">
-        <v>22.137843</v>
+        <v>24.246564</v>
       </c>
       <c r="I3">
-        <v>0.2744121884499961</v>
+        <v>0.2755301789948819</v>
       </c>
       <c r="J3">
-        <v>0.2744121884499961</v>
+        <v>0.2755301789948819</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.502144</v>
       </c>
       <c r="O3">
-        <v>0.00829272661023916</v>
+        <v>0.008782731887949688</v>
       </c>
       <c r="P3">
-        <v>0.00829272661023916</v>
+        <v>0.008782731887949688</v>
       </c>
       <c r="Q3">
-        <v>6.154674559488001</v>
+        <v>6.740932737024001</v>
       </c>
       <c r="R3">
-        <v>55.39207103539201</v>
+        <v>60.66839463321602</v>
       </c>
       <c r="S3">
-        <v>0.002275625257333246</v>
+        <v>0.002419907689150834</v>
       </c>
       <c r="T3">
-        <v>0.002275625257333246</v>
+        <v>0.002419907689150835</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.379281</v>
+        <v>8.082188</v>
       </c>
       <c r="H4">
-        <v>22.137843</v>
+        <v>24.246564</v>
       </c>
       <c r="I4">
-        <v>0.2744121884499961</v>
+        <v>0.2755301789948819</v>
       </c>
       <c r="J4">
-        <v>0.2744121884499961</v>
+        <v>0.2755301789948819</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>67.601958</v>
+        <v>79.04521166666666</v>
       </c>
       <c r="N4">
-        <v>202.805874</v>
+        <v>237.135635</v>
       </c>
       <c r="O4">
-        <v>0.6721490322030266</v>
+        <v>0.8323656445367243</v>
       </c>
       <c r="P4">
-        <v>0.6721490322030266</v>
+        <v>0.8323656445367243</v>
       </c>
       <c r="Q4">
-        <v>498.853844232198</v>
+        <v>638.8582611897933</v>
       </c>
       <c r="R4">
-        <v>4489.684598089782</v>
+        <v>5749.72435070814</v>
       </c>
       <c r="S4">
-        <v>0.1844458868913794</v>
+        <v>0.2293418550283939</v>
       </c>
       <c r="T4">
-        <v>0.1844458868913794</v>
+        <v>0.2293418550283939</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.379281</v>
+        <v>8.082188</v>
       </c>
       <c r="H5">
-        <v>22.137843</v>
+        <v>24.246564</v>
       </c>
       <c r="I5">
-        <v>0.2744121884499961</v>
+        <v>0.2755301789948819</v>
       </c>
       <c r="J5">
-        <v>0.2744121884499961</v>
+        <v>0.2755301789948819</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.344218666666668</v>
+        <v>11.15311533333333</v>
       </c>
       <c r="N5">
-        <v>28.032656</v>
+        <v>33.459346</v>
       </c>
       <c r="O5">
-        <v>0.09290718374597164</v>
+        <v>0.1174450651377945</v>
       </c>
       <c r="P5">
-        <v>0.09290718374597164</v>
+        <v>0.1174450651377945</v>
       </c>
       <c r="Q5">
-        <v>68.95361526677867</v>
+        <v>90.14157490968266</v>
       </c>
       <c r="R5">
-        <v>620.582537401008</v>
+        <v>811.274174187144</v>
       </c>
       <c r="S5">
-        <v>0.02549486361445798</v>
+        <v>0.03235965981948209</v>
       </c>
       <c r="T5">
-        <v>0.02549486361445798</v>
+        <v>0.03235965981948209</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>39.894172</v>
       </c>
       <c r="I6">
-        <v>0.4945128143207339</v>
+        <v>0.4533445791334642</v>
       </c>
       <c r="J6">
-        <v>0.4945128143207338</v>
+        <v>0.4533445791334642</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>22.795622</v>
+        <v>3.932154333333333</v>
       </c>
       <c r="N6">
-        <v>68.386866</v>
+        <v>11.796463</v>
       </c>
       <c r="O6">
-        <v>0.2266510574407626</v>
+        <v>0.04140655843753142</v>
       </c>
       <c r="P6">
-        <v>0.2266510574407626</v>
+        <v>0.04140655843753142</v>
       </c>
       <c r="Q6">
-        <v>303.1374883049946</v>
+        <v>52.29001376818177</v>
       </c>
       <c r="R6">
-        <v>2728.237394744952</v>
+        <v>470.610123913636</v>
       </c>
       <c r="S6">
-        <v>0.1120818522838018</v>
+        <v>0.01877143880822787</v>
       </c>
       <c r="T6">
-        <v>0.1120818522838018</v>
+        <v>0.01877143880822787</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>39.894172</v>
       </c>
       <c r="I7">
-        <v>0.4945128143207339</v>
+        <v>0.4533445791334642</v>
       </c>
       <c r="J7">
-        <v>0.4945128143207338</v>
+        <v>0.4533445791334642</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>2.502144</v>
       </c>
       <c r="O7">
-        <v>0.00829272661023916</v>
+        <v>0.008782731887949688</v>
       </c>
       <c r="P7">
-        <v>0.00829272661023916</v>
+        <v>0.008782731887949688</v>
       </c>
       <c r="Q7">
         <v>11.091218122752</v>
@@ -883,10 +883,10 @@
         <v>99.82096310476801</v>
       </c>
       <c r="S7">
-        <v>0.004100859574421806</v>
+        <v>0.003981603891384606</v>
       </c>
       <c r="T7">
-        <v>0.004100859574421806</v>
+        <v>0.003981603891384606</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>39.894172</v>
       </c>
       <c r="I8">
-        <v>0.4945128143207339</v>
+        <v>0.4533445791334642</v>
       </c>
       <c r="J8">
-        <v>0.4945128143207338</v>
+        <v>0.4533445791334642</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>67.601958</v>
+        <v>79.04521166666666</v>
       </c>
       <c r="N8">
-        <v>202.805874</v>
+        <v>237.135635</v>
       </c>
       <c r="O8">
-        <v>0.6721490322030266</v>
+        <v>0.8323656445367243</v>
       </c>
       <c r="P8">
-        <v>0.6721490322030266</v>
+        <v>0.8323656445367243</v>
       </c>
       <c r="Q8">
-        <v>898.9747133295919</v>
+        <v>1051.147756668802</v>
       </c>
       <c r="R8">
-        <v>8090.772419966327</v>
+        <v>9460.329810019219</v>
       </c>
       <c r="S8">
-        <v>0.3323863095576762</v>
+        <v>0.3773484528076559</v>
       </c>
       <c r="T8">
-        <v>0.3323863095576762</v>
+        <v>0.3773484528076559</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>39.894172</v>
       </c>
       <c r="I9">
-        <v>0.4945128143207339</v>
+        <v>0.4533445791334642</v>
       </c>
       <c r="J9">
-        <v>0.4945128143207338</v>
+        <v>0.4533445791334642</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.344218666666668</v>
+        <v>11.15311533333333</v>
       </c>
       <c r="N9">
-        <v>28.032656</v>
+        <v>33.459346</v>
       </c>
       <c r="O9">
-        <v>0.09290718374597164</v>
+        <v>0.1174450651377945</v>
       </c>
       <c r="P9">
-        <v>0.09290718374597164</v>
+        <v>0.1174450651377945</v>
       </c>
       <c r="Q9">
-        <v>124.2599555645369</v>
+        <v>148.3147671479458</v>
       </c>
       <c r="R9">
-        <v>1118.339600080832</v>
+        <v>1334.832904331512</v>
       </c>
       <c r="S9">
-        <v>0.04594379290483398</v>
+        <v>0.05324308362619574</v>
       </c>
       <c r="T9">
-        <v>0.04594379290483397</v>
+        <v>0.05324308362619575</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.540576000000001</v>
+        <v>5.789497666666667</v>
       </c>
       <c r="H10">
-        <v>13.621728</v>
+        <v>17.368493</v>
       </c>
       <c r="I10">
-        <v>0.1688497018860685</v>
+        <v>0.1973699855023315</v>
       </c>
       <c r="J10">
-        <v>0.1688497018860685</v>
+        <v>0.1973699855023315</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.795622</v>
+        <v>3.932154333333333</v>
       </c>
       <c r="N10">
-        <v>68.386866</v>
+        <v>11.796463</v>
       </c>
       <c r="O10">
-        <v>0.2266510574407626</v>
+        <v>0.04140655843753142</v>
       </c>
       <c r="P10">
-        <v>0.2266510574407626</v>
+        <v>0.04140655843753142</v>
       </c>
       <c r="Q10">
-        <v>103.505254158272</v>
+        <v>22.76519833780655</v>
       </c>
       <c r="R10">
-        <v>931.5472874244481</v>
+        <v>204.886785040259</v>
       </c>
       <c r="S10">
-        <v>0.03826996348103497</v>
+        <v>0.008172411838517017</v>
       </c>
       <c r="T10">
-        <v>0.03826996348103497</v>
+        <v>0.008172411838517019</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.540576000000001</v>
+        <v>5.789497666666667</v>
       </c>
       <c r="H11">
-        <v>13.621728</v>
+        <v>17.368493</v>
       </c>
       <c r="I11">
-        <v>0.1688497018860685</v>
+        <v>0.1973699855023315</v>
       </c>
       <c r="J11">
-        <v>0.1688497018860685</v>
+        <v>0.1973699855023315</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>2.502144</v>
       </c>
       <c r="O11">
-        <v>0.00829272661023916</v>
+        <v>0.008782731887949688</v>
       </c>
       <c r="P11">
-        <v>0.00829272661023916</v>
+        <v>0.008782731887949688</v>
       </c>
       <c r="Q11">
-        <v>3.787058331648001</v>
+        <v>4.828718949888001</v>
       </c>
       <c r="R11">
-        <v>34.08352498483201</v>
+        <v>43.45847054899201</v>
       </c>
       <c r="S11">
-        <v>0.00140022441596155</v>
+        <v>0.001733447665395494</v>
       </c>
       <c r="T11">
-        <v>0.00140022441596155</v>
+        <v>0.001733447665395495</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.540576000000001</v>
+        <v>5.789497666666667</v>
       </c>
       <c r="H12">
-        <v>13.621728</v>
+        <v>17.368493</v>
       </c>
       <c r="I12">
-        <v>0.1688497018860685</v>
+        <v>0.1973699855023315</v>
       </c>
       <c r="J12">
-        <v>0.1688497018860685</v>
+        <v>0.1973699855023315</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>67.601958</v>
+        <v>79.04521166666666</v>
       </c>
       <c r="N12">
-        <v>202.805874</v>
+        <v>237.135635</v>
       </c>
       <c r="O12">
-        <v>0.6721490322030266</v>
+        <v>0.8323656445367243</v>
       </c>
       <c r="P12">
-        <v>0.6721490322030266</v>
+        <v>0.8323656445367243</v>
       </c>
       <c r="Q12">
-        <v>306.951828047808</v>
+        <v>457.6320685053394</v>
       </c>
       <c r="R12">
-        <v>2762.566452430272</v>
+        <v>4118.688616548055</v>
       </c>
       <c r="S12">
-        <v>0.1134921637104905</v>
+        <v>0.1642839951948521</v>
       </c>
       <c r="T12">
-        <v>0.1134921637104905</v>
+        <v>0.1642839951948521</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.540576000000001</v>
+        <v>5.789497666666667</v>
       </c>
       <c r="H13">
-        <v>13.621728</v>
+        <v>17.368493</v>
       </c>
       <c r="I13">
-        <v>0.1688497018860685</v>
+        <v>0.1973699855023315</v>
       </c>
       <c r="J13">
-        <v>0.1688497018860685</v>
+        <v>0.1973699855023315</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.344218666666668</v>
+        <v>11.15311533333333</v>
       </c>
       <c r="N13">
-        <v>28.032656</v>
+        <v>33.459346</v>
       </c>
       <c r="O13">
-        <v>0.09290718374597164</v>
+        <v>0.1174450651377945</v>
       </c>
       <c r="P13">
-        <v>0.09290718374597164</v>
+        <v>0.1174450651377945</v>
       </c>
       <c r="Q13">
-        <v>42.42813501661868</v>
+        <v>64.57093519839755</v>
       </c>
       <c r="R13">
-        <v>381.8532151495681</v>
+        <v>581.138416785578</v>
       </c>
       <c r="S13">
-        <v>0.0156873502785815</v>
+        <v>0.02318013080356688</v>
       </c>
       <c r="T13">
-        <v>0.0156873502785815</v>
+        <v>0.02318013080356689</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.673314666666667</v>
+        <v>2.163479333333334</v>
       </c>
       <c r="H14">
-        <v>5.019944000000001</v>
+        <v>6.490438</v>
       </c>
       <c r="I14">
-        <v>0.06222529534320157</v>
+        <v>0.0737552563693224</v>
       </c>
       <c r="J14">
-        <v>0.06222529534320156</v>
+        <v>0.0737552563693224</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>22.795622</v>
+        <v>3.932154333333333</v>
       </c>
       <c r="N14">
-        <v>68.386866</v>
+        <v>11.796463</v>
       </c>
       <c r="O14">
-        <v>0.2266510574407626</v>
+        <v>0.04140655843753142</v>
       </c>
       <c r="P14">
-        <v>0.2266510574407626</v>
+        <v>0.04140655843753142</v>
       </c>
       <c r="Q14">
-        <v>38.14424862838933</v>
+        <v>8.507134635643778</v>
       </c>
       <c r="R14">
-        <v>343.298237655504</v>
+        <v>76.56421172079399</v>
       </c>
       <c r="S14">
-        <v>0.0141034289891004</v>
+        <v>0.003053951332931459</v>
       </c>
       <c r="T14">
-        <v>0.0141034289891004</v>
+        <v>0.00305395133293146</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.673314666666667</v>
+        <v>2.163479333333334</v>
       </c>
       <c r="H15">
-        <v>5.019944000000001</v>
+        <v>6.490438</v>
       </c>
       <c r="I15">
-        <v>0.06222529534320157</v>
+        <v>0.0737552563693224</v>
       </c>
       <c r="J15">
-        <v>0.06222529534320156</v>
+        <v>0.0737552563693224</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>2.502144</v>
       </c>
       <c r="O15">
-        <v>0.00829272661023916</v>
+        <v>0.008782731887949688</v>
       </c>
       <c r="P15">
-        <v>0.00829272661023916</v>
+        <v>0.008782731887949688</v>
       </c>
       <c r="Q15">
-        <v>1.395624751104001</v>
+        <v>1.804445611008</v>
       </c>
       <c r="R15">
-        <v>12.560622759936</v>
+        <v>16.240010499072</v>
       </c>
       <c r="S15">
-        <v>0.0005160173625225585</v>
+        <v>0.0006477726420187522</v>
       </c>
       <c r="T15">
-        <v>0.0005160173625225585</v>
+        <v>0.0006477726420187522</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.673314666666667</v>
+        <v>2.163479333333334</v>
       </c>
       <c r="H16">
-        <v>5.019944000000001</v>
+        <v>6.490438</v>
       </c>
       <c r="I16">
-        <v>0.06222529534320157</v>
+        <v>0.0737552563693224</v>
       </c>
       <c r="J16">
-        <v>0.06222529534320156</v>
+        <v>0.0737552563693224</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>67.601958</v>
+        <v>79.04521166666666</v>
       </c>
       <c r="N16">
-        <v>202.805874</v>
+        <v>237.135635</v>
       </c>
       <c r="O16">
-        <v>0.6721490322030266</v>
+        <v>0.8323656445367243</v>
       </c>
       <c r="P16">
-        <v>0.6721490322030266</v>
+        <v>0.8323656445367243</v>
       </c>
       <c r="Q16">
-        <v>113.119347816784</v>
+        <v>171.0126818397922</v>
       </c>
       <c r="R16">
-        <v>1018.074130351056</v>
+        <v>1539.11413655813</v>
       </c>
       <c r="S16">
-        <v>0.04182467204348043</v>
+        <v>0.06139134150582238</v>
       </c>
       <c r="T16">
-        <v>0.04182467204348043</v>
+        <v>0.06139134150582238</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.673314666666667</v>
+        <v>2.163479333333334</v>
       </c>
       <c r="H17">
-        <v>5.019944000000001</v>
+        <v>6.490438</v>
       </c>
       <c r="I17">
-        <v>0.06222529534320157</v>
+        <v>0.0737552563693224</v>
       </c>
       <c r="J17">
-        <v>0.06222529534320156</v>
+        <v>0.0737552563693224</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.344218666666668</v>
+        <v>11.15311533333333</v>
       </c>
       <c r="N17">
-        <v>28.032656</v>
+        <v>33.459346</v>
       </c>
       <c r="O17">
-        <v>0.09290718374597164</v>
+        <v>0.1174450651377945</v>
       </c>
       <c r="P17">
-        <v>0.09290718374597164</v>
+        <v>0.1174450651377945</v>
       </c>
       <c r="Q17">
-        <v>15.63581814347378</v>
+        <v>24.12953452594978</v>
       </c>
       <c r="R17">
-        <v>140.722363291264</v>
+        <v>217.165810733548</v>
       </c>
       <c r="S17">
-        <v>0.005781176948098181</v>
+        <v>0.008662190888549803</v>
       </c>
       <c r="T17">
-        <v>0.005781176948098181</v>
+        <v>0.008662190888549805</v>
       </c>
     </row>
   </sheetData>
